--- a/members/GRC_Members.xlsx
+++ b/members/GRC_Members.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johanbehrens/WebstormProjects/xrcvetapi/members/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F6D8E1-597D-3E47-AFA1-B613F3D7BF84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89383B7E-ECF3-5740-9AB2-4556B7AF4D1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="460" windowWidth="27180" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="134">
   <si>
     <t>Member Nr</t>
   </si>
@@ -402,37 +402,34 @@
     <t>8506145060081</t>
   </si>
   <si>
-    <t>31/8/1958</t>
-  </si>
-  <si>
-    <t>21/11/1991</t>
-  </si>
-  <si>
-    <t>22/6/1969</t>
-  </si>
-  <si>
-    <t>27/3/1958</t>
-  </si>
-  <si>
-    <t>17/10/1959</t>
-  </si>
-  <si>
-    <t>14/11/1905</t>
-  </si>
-  <si>
-    <t>1984/01/1906</t>
-  </si>
-  <si>
-    <t>14/6/1985</t>
-  </si>
-  <si>
     <t>1981/11/11</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>1992/11/24</t>
+  </si>
+  <si>
+    <t>1958/8/31</t>
+  </si>
+  <si>
+    <t>1991/11/21</t>
+  </si>
+  <si>
+    <t>1969/6/22</t>
+  </si>
+  <si>
+    <t>1958/3/27</t>
+  </si>
+  <si>
+    <t>1959/10/17</t>
+  </si>
+  <si>
+    <t>1984/01/19</t>
+  </si>
+  <si>
+    <t>1985/6/14</t>
+  </si>
+  <si>
+    <t>2005/11/14</t>
   </si>
 </sst>
 </file>
@@ -991,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="116" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="116" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1002,7 +999,7 @@
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="15.6640625" style="16" customWidth="1"/>
@@ -1196,7 +1193,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>76</v>
@@ -1256,7 +1253,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>76</v>
@@ -1466,7 +1463,7 @@
         <v>36</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>76</v>
@@ -1574,7 +1571,7 @@
         <v>37</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>76</v>
@@ -1684,7 +1681,7 @@
         <v>39</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>76</v>
@@ -1853,7 +1850,7 @@
         <v>54</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>76</v>
@@ -1915,7 +1912,7 @@
         <v>59</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>76</v>
@@ -1976,9 +1973,7 @@
       <c r="F21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="G21" s="21"/>
       <c r="H21" s="5" t="s">
         <v>76</v>
       </c>
@@ -2039,7 +2034,7 @@
         <v>60</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>76</v>
@@ -2099,7 +2094,7 @@
         <v>61</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>76</v>
@@ -2161,7 +2156,7 @@
         <v>94</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>76</v>
